--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -764,19 +768,22 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -852,19 +862,22 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
@@ -908,7 +922,7 @@
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -920,13 +934,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
-      </c>
-      <c r="P12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +986,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -986,11 +1006,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -998,11 +1018,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1054,11 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,16 +1098,17 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1090,22 +1117,22 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1114,10 +1141,13 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1134,34 +1164,37 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1268,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1284,34 +1324,37 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1328,34 +1371,37 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1460,34 +1512,37 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1504,34 +1559,37 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1768,34 +1841,37 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1856,83 +1935,89 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1988,31 +2075,34 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,22 +2145,25 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2082,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2160,8 +2259,8 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2175,8 +2274,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2208,31 +2310,34 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,13 +2427,16 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2340,10 +2451,10 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
         <v>200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -2358,13 +2469,16 @@
         <v>300</v>
       </c>
       <c r="O49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,13 +2662,16 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -2560,31 +2686,34 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,13 +2759,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2663,34 +2794,37 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
@@ -2699,7 +2833,7 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -2707,31 +2841,34 @@
       <c r="P58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -2740,54 +2877,57 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1500</v>
       </c>
       <c r="G60" s="3">
         <v>1500</v>
       </c>
       <c r="H60" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,43 +3170,46 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>1500</v>
       </c>
       <c r="H66" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="I66" s="3">
         <v>1300</v>
       </c>
       <c r="J66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,16 +3612,19 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1400</v>
       </c>
       <c r="F76" s="3">
         <v>-1400</v>
@@ -3447,34 +3633,37 @@
         <v>-1400</v>
       </c>
       <c r="H76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
-        <v>-200</v>
-      </c>
       <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
-        <v>-200</v>
-      </c>
       <c r="O76" s="3">
         <v>-200</v>
       </c>
       <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3584,34 +3779,37 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3669,11 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,43 +4106,46 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
       </c>
       <c r="J100" s="3">
+        <v>600</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4433,27 +4685,30 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -771,19 +778,25 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -865,19 +884,25 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,16 +920,18 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -916,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -937,13 +964,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,46 +1022,52 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1036,16 +1075,22 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1057,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1080,11 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,28 +1161,28 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1138,16 +1191,22 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
@@ -1277,37 +1350,43 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1327,34 +1406,40 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1374,34 +1459,40 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1515,34 +1618,40 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1562,34 +1671,40 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1844,34 +1989,40 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1938,86 +2095,98 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2078,31 +2251,37 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2159,18 +2344,18 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2178,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,25 +2433,31 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2277,11 +2474,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2313,31 +2516,37 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2454,13 +2675,13 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
+        <v>100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
         <v>200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -2472,13 +2693,19 @@
         <v>300</v>
       </c>
       <c r="P49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>300</v>
+      </c>
+      <c r="R49" s="3">
         <v>400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,7 +2928,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -2689,31 +2940,37 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2762,7 +3023,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2771,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2824,122 +3091,140 @@
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>600</v>
+      </c>
+      <c r="S66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,40 +3980,46 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1400</v>
       </c>
       <c r="H76" s="3">
         <v>-1400</v>
       </c>
       <c r="I76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -3657,13 +4028,19 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3782,34 +4171,40 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,16 +4245,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3871,11 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,46 +5070,52 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4688,27 +5191,33 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -784,24 +788,27 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -890,19 +900,22 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,19 +935,20 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>200</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -949,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
@@ -958,7 +972,7 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -970,13 +984,16 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,11 +1062,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1054,11 +1074,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1066,11 +1086,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1081,19 +1101,22 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1108,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1131,11 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,13 +1178,14 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1167,10 +1194,10 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1179,22 +1206,22 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1203,10 +1230,13 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1220,11 +1250,11 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
@@ -1232,34 +1262,37 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1347,51 +1384,54 @@
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1412,39 +1452,42 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1465,34 +1508,37 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,13 +1646,16 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1624,39 +1676,42 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -1677,34 +1732,37 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,13 +2038,16 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -1995,34 +2068,37 @@
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,13 +2150,16 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2101,92 +2180,98 @@
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2257,31 +2344,34 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2350,14 +2443,14 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2369,13 +2462,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2480,8 +2579,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2522,31 +2624,34 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2666,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2681,10 +2792,10 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
         <v>200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -2699,13 +2810,16 @@
         <v>300</v>
       </c>
       <c r="R49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -2946,31 +3072,34 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3029,13 +3160,13 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,10 +3231,10 @@
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
@@ -3109,7 +3243,7 @@
         <v>400</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3117,25 +3251,28 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
@@ -3144,13 +3281,13 @@
         <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3159,63 +3296,66 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1500</v>
       </c>
       <c r="J60" s="3">
         <v>1500</v>
       </c>
       <c r="K60" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L60" s="3">
         <v>1300</v>
       </c>
       <c r="M60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>600</v>
       </c>
       <c r="R60" s="3">
         <v>600</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,52 +3643,55 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1500</v>
       </c>
       <c r="J66" s="3">
         <v>1500</v>
       </c>
       <c r="K66" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L66" s="3">
         <v>1300</v>
       </c>
       <c r="M66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,25 +4169,28 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1400</v>
       </c>
       <c r="I76" s="3">
         <v>-1400</v>
@@ -4013,34 +4199,37 @@
         <v>-1400</v>
       </c>
       <c r="K76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
-        <v>-200</v>
-      </c>
       <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
-      </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
       <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,71 +4281,77 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -4177,34 +4372,37 @@
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4251,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4274,11 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,52 +4756,55 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>600</v>
       </c>
       <c r="M100" s="3">
+        <v>600</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5197,27 +5449,30 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,100 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,13 +787,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -791,10 +802,10 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
@@ -802,22 +813,31 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -858,22 +878,31 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -888,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -903,10 +932,10 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
@@ -914,8 +943,17 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,13 +974,16 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>200</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -951,13 +992,13 @@
         <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -966,34 +1007,43 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1098,17 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,8 +1124,8 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1074,11 +1133,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1086,11 +1145,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1098,19 +1157,28 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
@@ -1121,11 +1189,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1134,20 +1202,20 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1157,11 +1225,20 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,25 +1256,28 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1206,37 +1286,46 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1411,11 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1470,17 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,70 +1488,79 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1455,49 +1574,58 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
@@ -1511,34 +1639,43 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1730,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,23 +1795,32 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
@@ -1679,49 +1834,58 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
@@ -1735,34 +1899,43 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1990,17 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2055,17 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2120,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2185,17 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,23 +2250,32 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
@@ -2071,34 +2289,43 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,23 +2380,32 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
@@ -2183,95 +2419,113 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2546,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,19 +2571,22 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2347,31 +2607,40 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,16 +2695,25 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2446,44 +2724,53 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2825,17 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,31 +2878,40 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2627,31 +2932,40 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +3020,17 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +3085,17 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2780,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2795,16 +3127,16 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
         <v>200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>300</v>
-      </c>
-      <c r="O49" s="3">
-        <v>300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
@@ -2813,13 +3145,22 @@
         <v>300</v>
       </c>
       <c r="S49" s="3">
+        <v>300</v>
+      </c>
+      <c r="T49" s="3">
+        <v>300</v>
+      </c>
+      <c r="U49" s="3">
+        <v>300</v>
+      </c>
+      <c r="V49" s="3">
         <v>400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3215,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3280,17 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3345,17 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3410,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3060,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -3075,22 +3452,22 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
@@ -3098,8 +3475,17 @@
       <c r="T54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3506,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,40 +3531,43 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3198,19 +3590,28 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
@@ -3234,148 +3635,175 @@
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>600</v>
       </c>
       <c r="T60" s="3">
+        <v>800</v>
+      </c>
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>600</v>
+      </c>
+      <c r="W60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3422,8 +3850,17 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3915,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3980,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4045,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4110,82 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
       </c>
       <c r="T66" s="3">
+        <v>800</v>
+      </c>
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>600</v>
+      </c>
+      <c r="W66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4206,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4265,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4330,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4395,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4460,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-12800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-12500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-12300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-12100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-11900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-11500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-11300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-10900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-10700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-10500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-10000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-9700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-9600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4590,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4655,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4720,17 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,55 +4738,64 @@
         <v>-2300</v>
       </c>
       <c r="E76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,84 +4850,102 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
@@ -4375,34 +4959,43 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5016,11 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4453,20 +5049,20 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4476,11 +5072,20 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5140,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5205,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5270,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5335,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,49 +5400,58 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -4810,13 +5460,22 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5496,11 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5555,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5620,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5685,17 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5781,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5840,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5905,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5970,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,52 +6035,61 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-100</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>300</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -5361,10 +6098,19 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,19 +6165,28 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5452,27 +6207,36 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -811,19 +819,25 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,11 +853,11 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -887,8 +901,14 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,11 +924,11 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -926,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -941,19 +961,25 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,34 +1003,36 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>200</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1016,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1037,13 +1065,19 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
-      </c>
-      <c r="W12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,64 +1141,70 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>100</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,20 +1232,20 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1211,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1234,11 +1280,17 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1311,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,43 +1325,43 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
@@ -1316,16 +1370,22 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,61 +1396,67 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1479,8 +1547,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,25 +1562,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
@@ -1515,57 +1589,63 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1583,55 +1663,61 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
@@ -1648,34 +1734,40 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,29 +1902,35 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
@@ -1843,55 +1947,61 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
@@ -1908,34 +2018,40 @@
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2259,29 +2399,35 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
@@ -2298,34 +2444,40 @@
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,29 +2541,35 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
@@ -2428,104 +2586,116 @@
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,25 +2746,27 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2616,31 +2790,37 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,47 +2884,53 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2752,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2887,11 +3085,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
@@ -2899,25 +3097,31 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2941,31 +3145,37 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
       <c r="W46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,13 +3310,19 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -3121,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -3136,13 +3358,13 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
         <v>200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
@@ -3154,13 +3376,19 @@
         <v>300</v>
       </c>
       <c r="V49" s="3">
+        <v>300</v>
+      </c>
+      <c r="W49" s="3">
+        <v>300</v>
+      </c>
+      <c r="X49" s="3">
         <v>400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,28 +3665,34 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3449,7 +3701,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3461,31 +3713,37 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>500</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
       </c>
       <c r="V54" s="3">
+        <v>500</v>
+      </c>
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,28 +3794,30 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3564,7 +3826,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3573,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3599,25 +3861,31 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
@@ -3644,93 +3912,105 @@
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>400</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
       </c>
       <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,79 +4018,85 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2300</v>
       </c>
       <c r="H60" s="3">
         <v>2200</v>
       </c>
       <c r="I60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>800</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
       </c>
       <c r="V60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="W60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,19 +4429,25 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2200</v>
       </c>
       <c r="G66" s="3">
         <v>2300</v>
@@ -4140,52 +4456,58 @@
         <v>2200</v>
       </c>
       <c r="I66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>600</v>
-      </c>
-      <c r="T66" s="3">
-        <v>800</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
       </c>
       <c r="V66" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-10300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-9700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-9600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,58 +5095,64 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-2200</v>
       </c>
       <c r="G76" s="3">
         <v>-2300</v>
       </c>
       <c r="H76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1400</v>
       </c>
       <c r="N76" s="3">
         <v>-1400</v>
       </c>
       <c r="O76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-300</v>
@@ -4789,13 +5161,19 @@
         <v>-200</v>
       </c>
       <c r="V76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,99 +5237,111 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
@@ -4968,34 +5358,40 @@
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5058,16 +5456,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5081,11 +5479,17 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,13 +5837,19 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -5424,58 +5858,64 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
-      </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,13 +6530,19 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -6059,10 +6551,10 @@
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
@@ -6071,46 +6563,52 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>300</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,25 +6672,31 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6216,27 +6720,33 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -825,19 +828,22 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,8 +865,8 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,8 +939,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -952,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -967,19 +976,22 @@
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,19 +1017,20 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -1025,17 +1038,17 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1050,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
@@ -1059,7 +1072,7 @@
         <v>200</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1071,13 +1084,16 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,17 +1192,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1191,11 +1210,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>100</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1203,11 +1222,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,17 +1260,17 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1263,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1286,11 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,31 +1338,32 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1346,10 +1372,10 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1358,22 +1384,22 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
@@ -1382,10 +1408,13 @@
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,23 +1422,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
@@ -1417,11 +1446,11 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
@@ -1429,34 +1458,37 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
-        <v>-200</v>
-      </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,11 +1524,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,23 +1598,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
@@ -1586,57 +1622,60 @@
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
-        <v>-200</v>
-      </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1645,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1669,58 +1708,61 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
@@ -1740,34 +1782,37 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>-200</v>
-      </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,32 +1956,35 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
@@ -1953,58 +2004,61 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>-200</v>
-      </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
@@ -2024,34 +2078,37 @@
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,11 +2412,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2405,32 +2474,35 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
@@ -2450,34 +2522,37 @@
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,32 +2622,35 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
@@ -2592,110 +2670,116 @@
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,28 +2833,29 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2796,31 +2882,34 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2925,14 +3017,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2944,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,31 +3127,34 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3091,8 +3189,8 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3103,28 +3201,31 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3151,31 +3252,34 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,16 +3423,19 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3349,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -3364,10 +3474,10 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
         <v>200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>300</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
@@ -3382,13 +3492,16 @@
         <v>300</v>
       </c>
       <c r="X49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,40 +3793,43 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -3719,31 +3844,34 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>400</v>
       </c>
       <c r="X54" s="3">
         <v>400</v>
       </c>
       <c r="Y54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3808,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3820,7 +3950,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3832,13 +3962,13 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3879,16 +4012,16 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
@@ -3918,10 +4051,10 @@
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
-      </c>
-      <c r="T58" s="3">
-        <v>400</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
@@ -3930,7 +4063,7 @@
         <v>400</v>
       </c>
       <c r="W58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
@@ -3938,43 +4071,46 @@
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
@@ -3983,13 +4119,13 @@
         <v>700</v>
       </c>
       <c r="Q59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -3998,81 +4134,84 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1500</v>
       </c>
       <c r="P60" s="3">
         <v>1500</v>
       </c>
       <c r="Q60" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="R60" s="3">
         <v>1300</v>
       </c>
       <c r="S60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
-      </c>
-      <c r="W60" s="3">
-        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>600</v>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,17 +4231,17 @@
         <v>1700</v>
       </c>
       <c r="E61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,70 +4589,73 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1500</v>
       </c>
       <c r="P66" s="3">
         <v>1500</v>
       </c>
       <c r="Q66" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="R66" s="3">
         <v>1300</v>
       </c>
       <c r="S66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
-      </c>
-      <c r="W66" s="3">
-        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>600</v>
@@ -4506,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,43 +5283,46 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-2300</v>
       </c>
       <c r="G76" s="3">
         <v>-2300</v>
       </c>
       <c r="H76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1400</v>
       </c>
       <c r="O76" s="3">
         <v>-1400</v>
@@ -5146,34 +5331,37 @@
         <v>-1400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
-        <v>-200</v>
-      </c>
       <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
-        <v>-200</v>
-      </c>
       <c r="X76" s="3">
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,108 +5431,114 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
@@ -5364,34 +5558,37 @@
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5462,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5485,11 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,16 +6056,19 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -5864,10 +6080,10 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -5876,37 +6092,37 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -5914,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>600</v>
       </c>
       <c r="S100" s="3">
+        <v>600</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6687,19 +6938,19 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6726,27 +6977,30 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
@@ -831,19 +835,22 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,8 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -942,8 +952,8 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -964,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
@@ -979,19 +989,22 @@
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,11 +1043,11 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1041,17 +1055,17 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1066,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
@@ -1075,7 +1089,7 @@
         <v>200</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -1087,13 +1101,16 @@
         <v>0</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,17 +1215,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1213,11 +1233,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>100</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1225,11 +1245,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,17 +1286,17 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1288,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1311,11 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,34 +1365,35 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1375,10 +1402,10 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1387,22 +1414,22 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
@@ -1411,10 +1438,13 @@
         <v>200</v>
       </c>
       <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,26 +1452,26 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
@@ -1449,11 +1479,11 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
@@ -1461,34 +1491,37 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
-        <v>-200</v>
-      </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,11 +1561,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,26 +1635,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
@@ -1625,60 +1662,63 @@
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
-        <v>-200</v>
-      </c>
       <c r="X21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1687,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1711,61 +1751,64 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
@@ -1785,34 +1828,37 @@
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
-        <v>-200</v>
-      </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>-200</v>
-      </c>
       <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,35 +2008,38 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
@@ -2007,61 +2059,64 @@
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
-        <v>-200</v>
-      </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
-        <v>-200</v>
-      </c>
       <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
@@ -2081,34 +2136,37 @@
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
-        <v>-200</v>
-      </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>-200</v>
-      </c>
       <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,11 +2485,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2477,35 +2547,38 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
@@ -2525,34 +2598,37 @@
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
-        <v>-200</v>
-      </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>-200</v>
-      </c>
       <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,35 +2701,38 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
@@ -2673,113 +2752,119 @@
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
-        <v>-200</v>
-      </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>-200</v>
-      </c>
       <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,31 +2920,32 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2885,31 +2972,34 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3020,14 +3113,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3039,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,16 +3226,19 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -3156,8 +3255,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3192,8 +3291,8 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
@@ -3204,31 +3303,34 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3255,31 +3357,34 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3437,8 +3548,8 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3462,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -3477,10 +3588,10 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
         <v>200</v>
-      </c>
-      <c r="T49" s="3">
-        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
@@ -3495,13 +3606,16 @@
         <v>300</v>
       </c>
       <c r="Y49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,43 +3919,46 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
@@ -3847,31 +3973,34 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
-      </c>
-      <c r="X54" s="3">
-        <v>400</v>
       </c>
       <c r="Y54" s="3">
         <v>400</v>
       </c>
       <c r="Z54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3941,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3953,7 +4084,7 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3965,13 +4096,13 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4015,16 +4149,16 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
@@ -4054,10 +4188,10 @@
         <v>700</v>
       </c>
       <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
         <v>900</v>
-      </c>
-      <c r="U58" s="3">
-        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>400</v>
@@ -4066,7 +4200,7 @@
         <v>400</v>
       </c>
       <c r="X58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
@@ -4074,46 +4208,49 @@
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
@@ -4122,13 +4259,13 @@
         <v>700</v>
       </c>
       <c r="R59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
@@ -4137,84 +4274,87 @@
         <v>200</v>
       </c>
       <c r="W59" s="3">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1500</v>
       </c>
       <c r="Q60" s="3">
         <v>1500</v>
       </c>
       <c r="R60" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="S60" s="3">
         <v>1300</v>
       </c>
       <c r="T60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>600</v>
       </c>
       <c r="Y60" s="3">
         <v>600</v>
@@ -4222,29 +4362,32 @@
       <c r="Z60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
         <v>1700</v>
       </c>
       <c r="F61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,73 +4747,76 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1500</v>
       </c>
       <c r="Q66" s="3">
         <v>1500</v>
       </c>
       <c r="R66" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="S66" s="3">
         <v>1300</v>
       </c>
       <c r="T66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
-      </c>
-      <c r="X66" s="3">
-        <v>600</v>
       </c>
       <c r="Y66" s="3">
         <v>600</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,46 +5469,49 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2300</v>
       </c>
       <c r="H76" s="3">
         <v>-2300</v>
       </c>
       <c r="I76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1400</v>
       </c>
       <c r="P76" s="3">
         <v>-1400</v>
@@ -5334,34 +5520,37 @@
         <v>-1400</v>
       </c>
       <c r="R76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
-        <v>-200</v>
-      </c>
       <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y76" s="3">
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,114 +5623,120 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
@@ -5561,34 +5756,37 @@
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
-        <v>-200</v>
-      </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>-200</v>
-      </c>
       <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5663,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5686,11 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,19 +6273,22 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -6083,10 +6300,10 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6095,37 +6312,37 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
-        <v>-200</v>
-      </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>-200</v>
-      </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>600</v>
       </c>
       <c r="T100" s="3">
+        <v>600</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,31 +7178,34 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6980,27 +7232,30 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
@@ -838,19 +842,22 @@
         <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,8 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -955,8 +965,8 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -977,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
@@ -992,19 +1002,22 @@
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,13 +1045,14 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>200</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1046,11 +1060,11 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -1058,17 +1072,17 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1083,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
@@ -1092,7 +1106,7 @@
         <v>200</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -1104,13 +1118,16 @@
         <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,17 +1238,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1236,11 +1256,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1248,11 +1268,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,17 +1312,17 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1314,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1337,11 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,37 +1392,38 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1405,10 +1432,10 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1417,22 +1444,22 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
@@ -1441,10 +1468,13 @@
         <v>200</v>
       </c>
       <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,29 +1482,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
@@ -1482,11 +1512,11 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
@@ -1494,34 +1524,37 @@
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y18" s="3">
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,11 +1598,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,29 +1672,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
@@ -1665,63 +1702,66 @@
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1730,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1754,64 +1794,67 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
@@ -1831,34 +1874,37 @@
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
-        <v>-200</v>
-      </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,38 +2060,41 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
@@ -2062,64 +2114,67 @@
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
-        <v>-200</v>
-      </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
@@ -2139,34 +2194,37 @@
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,11 +2558,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2550,38 +2620,41 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
@@ -2601,34 +2674,37 @@
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,38 +2780,41 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
@@ -2755,116 +2834,122 @@
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,25 +3017,25 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2975,31 +3062,34 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3116,14 +3209,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3135,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,19 +3325,22 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -3258,8 +3357,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3294,8 +3393,8 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3306,34 +3405,37 @@
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -3360,31 +3462,34 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3551,8 +3662,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3576,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
@@ -3591,10 +3702,10 @@
         <v>100</v>
       </c>
       <c r="T49" s="3">
+        <v>100</v>
+      </c>
+      <c r="U49" s="3">
         <v>200</v>
-      </c>
-      <c r="U49" s="3">
-        <v>300</v>
       </c>
       <c r="V49" s="3">
         <v>300</v>
@@ -3609,13 +3720,16 @@
         <v>300</v>
       </c>
       <c r="Z49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,46 +4045,49 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -3976,31 +4102,34 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>400</v>
       </c>
       <c r="Z54" s="3">
         <v>400</v>
       </c>
       <c r="AA54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4075,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -4087,7 +4218,7 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4099,13 +4230,13 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4152,16 +4286,16 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
@@ -4191,10 +4325,10 @@
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>400</v>
       </c>
       <c r="W58" s="3">
         <v>400</v>
@@ -4203,7 +4337,7 @@
         <v>400</v>
       </c>
       <c r="Y58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,40 +4357,40 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
@@ -4262,13 +4399,13 @@
         <v>700</v>
       </c>
       <c r="S59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
@@ -4277,19 +4414,22 @@
         <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4297,67 +4437,67 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1500</v>
       </c>
       <c r="R60" s="3">
         <v>1500</v>
       </c>
       <c r="S60" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T60" s="3">
         <v>1300</v>
       </c>
       <c r="U60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>600</v>
       </c>
       <c r="Z60" s="3">
         <v>600</v>
@@ -4365,32 +4505,35 @@
       <c r="AA60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>1700</v>
       </c>
       <c r="G61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,76 +4905,79 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1500</v>
       </c>
       <c r="R66" s="3">
         <v>1500</v>
       </c>
       <c r="S66" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T66" s="3">
         <v>1300</v>
       </c>
       <c r="U66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>600</v>
       </c>
       <c r="Z66" s="3">
         <v>600</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,49 +5655,52 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2300</v>
       </c>
       <c r="I76" s="3">
         <v>-2300</v>
       </c>
       <c r="J76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q76" s="3">
         <v>-1400</v>
@@ -5523,34 +5709,37 @@
         <v>-1400</v>
       </c>
       <c r="S76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
-        <v>-200</v>
-      </c>
       <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="Y76" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z76" s="3">
         <v>-200</v>
       </c>
       <c r="AA76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,120 +5815,126 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
@@ -5759,34 +5954,37 @@
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5865,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5888,11 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,22 +6490,25 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -6303,10 +6520,10 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -6315,37 +6532,37 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>-200</v>
-      </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>600</v>
       </c>
       <c r="U100" s="3">
+        <v>600</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,34 +7430,37 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -7235,27 +7487,30 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-100</v>
       </c>
       <c r="W102" s="3">
         <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
@@ -845,19 +852,25 @@
         <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,11 +901,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,11 +987,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -990,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
@@ -1005,19 +1024,25 @@
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,49 +1071,51 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>200</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>200</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>200</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1100,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
@@ -1121,13 +1148,19 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,44 +1280,44 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>100</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>100</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,20 +1360,20 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1340,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1363,11 +1408,17 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,25 +1444,27 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1420,43 +1473,43 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>400</v>
@@ -1465,16 +1518,22 @@
         <v>200</v>
       </c>
       <c r="Z17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
       <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1485,13 +1544,13 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1500,61 +1559,67 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,20 +1662,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1675,37 +1748,37 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
@@ -1714,72 +1787,78 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
       <c r="Y21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1797,45 +1876,51 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
@@ -1844,23 +1929,23 @@
         <v>-700</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
@@ -1877,34 +1962,40 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,19 +2160,25 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
@@ -2084,23 +2187,23 @@
         <v>-700</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
@@ -2117,45 +2220,51 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
@@ -2164,23 +2273,23 @@
         <v>-700</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
@@ -2197,34 +2306,40 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2555,20 +2694,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2623,19 +2762,25 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
@@ -2644,23 +2789,23 @@
         <v>-700</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
@@ -2677,34 +2822,40 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,19 +2934,25 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
@@ -2804,23 +2961,23 @@
         <v>-700</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
@@ -2837,119 +2994,131 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,40 +3179,42 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -3065,31 +3238,37 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3212,18 +3397,18 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
@@ -3231,16 +3416,16 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -3360,11 +3557,11 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3396,11 +3593,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
@@ -3408,40 +3605,46 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -3465,31 +3668,37 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
       <c r="AB46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,22 +3863,28 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3690,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -3705,13 +3926,13 @@
         <v>100</v>
       </c>
       <c r="U49" s="3">
+        <v>100</v>
+      </c>
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
         <v>200</v>
-      </c>
-      <c r="V49" s="3">
-        <v>300</v>
-      </c>
-      <c r="W49" s="3">
-        <v>300</v>
       </c>
       <c r="X49" s="3">
         <v>300</v>
@@ -3723,13 +3944,19 @@
         <v>300</v>
       </c>
       <c r="AA49" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC49" s="3">
         <v>400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,43 +4293,49 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -4093,7 +4344,7 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -4105,31 +4356,37 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
-      </c>
-      <c r="X54" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>500</v>
       </c>
       <c r="Z54" s="3">
         <v>400</v>
       </c>
       <c r="AA54" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4209,22 +4470,22 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -4233,7 +4494,7 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -4242,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4289,19 +4556,19 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
@@ -4328,218 +4595,236 @@
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
+        <v>700</v>
+      </c>
+      <c r="X58" s="3">
         <v>900</v>
-      </c>
-      <c r="W58" s="3">
-        <v>400</v>
-      </c>
-      <c r="X58" s="3">
-        <v>400</v>
       </c>
       <c r="Y58" s="3">
         <v>400</v>
       </c>
       <c r="Z58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
       <c r="T59" s="3">
+        <v>700</v>
+      </c>
+      <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
       <c r="Y59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
       </c>
       <c r="AA59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2300</v>
       </c>
       <c r="M60" s="3">
         <v>2200</v>
       </c>
       <c r="N60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
-      </c>
-      <c r="X60" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>800</v>
       </c>
       <c r="Z60" s="3">
         <v>600</v>
       </c>
       <c r="AA60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AB60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,34 +5217,40 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2200</v>
       </c>
       <c r="L66" s="3">
         <v>2300</v>
@@ -4944,52 +5259,58 @@
         <v>2200</v>
       </c>
       <c r="N66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>700</v>
-      </c>
-      <c r="X66" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>800</v>
       </c>
       <c r="Z66" s="3">
         <v>600</v>
       </c>
       <c r="AA66" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AB66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16400</v>
+        <v>-16900</v>
       </c>
       <c r="E72" s="3">
         <v>-16600</v>
       </c>
       <c r="F72" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-16200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-11700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-10900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-10700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-10500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,73 +6023,79 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2200</v>
+        <v>-2600</v>
       </c>
       <c r="E76" s="3">
         <v>-2400</v>
       </c>
       <c r="F76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2200</v>
       </c>
       <c r="L76" s="3">
         <v>-2300</v>
       </c>
       <c r="M76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1400</v>
       </c>
       <c r="S76" s="3">
         <v>-1400</v>
       </c>
       <c r="T76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-200</v>
       </c>
       <c r="Y76" s="3">
         <v>-300</v>
@@ -5733,13 +6104,19 @@
         <v>-200</v>
       </c>
       <c r="AA76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,104 +6195,116 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
@@ -5924,23 +6313,23 @@
         <v>-700</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
@@ -5957,34 +6346,40 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6067,16 +6464,16 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -6090,11 +6487,17 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,19 +6935,19 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -6523,58 +6956,64 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,16 +7776,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -7303,10 +7794,10 @@
         <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
@@ -7315,46 +7806,52 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
       <c r="AB100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,31 +7945,31 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7490,27 +7993,33 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
@@ -858,19 +862,22 @@
         <v>100</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,8 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1003,8 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -1015,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
@@ -1030,19 +1040,22 @@
         <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,23 +1098,23 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -1108,17 +1122,17 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1133,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
@@ -1142,7 +1156,7 @@
         <v>200</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
@@ -1154,13 +1168,16 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,17 +1306,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1304,11 +1324,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>100</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>100</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1316,11 +1336,11 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,17 +1389,17 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1391,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1414,11 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1458,34 +1485,34 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1494,10 +1521,10 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1506,22 +1533,22 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
@@ -1530,10 +1557,13 @@
         <v>200</v>
       </c>
       <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1544,35 +1574,35 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
@@ -1580,11 +1610,11 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
@@ -1592,34 +1622,37 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB18" s="3">
         <v>-200</v>
       </c>
       <c r="AC18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1662,11 +1696,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1674,11 +1708,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1748,35 +1785,35 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
@@ -1784,46 +1821,49 @@
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>-200</v>
-      </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1834,22 +1874,22 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1858,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1882,22 +1922,22 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1905,50 +1945,53 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-300</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
@@ -1968,34 +2011,37 @@
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
-        <v>-200</v>
-      </c>
       <c r="AD23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,47 +2215,50 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-300</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
@@ -2226,73 +2278,76 @@
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
-        <v>-200</v>
-      </c>
       <c r="AD26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-300</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
@@ -2312,34 +2367,37 @@
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
-        <v>-200</v>
-      </c>
       <c r="AD27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2694,11 +2764,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2706,11 +2776,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2768,47 +2838,50 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-300</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
@@ -2828,34 +2901,37 @@
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
-        <v>-200</v>
-      </c>
       <c r="AD33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,47 +3016,50 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-300</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
@@ -3000,125 +3079,131 @@
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
-        <v>-200</v>
-      </c>
       <c r="AD35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3193,31 +3280,31 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -3244,31 +3331,34 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3403,14 +3496,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3422,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3540,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3563,8 +3662,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3599,8 +3698,8 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3623,31 +3725,31 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -3674,31 +3776,34 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
       <c r="Z46" s="3">
         <v>100</v>
       </c>
       <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
       <c r="AC46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3917,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
@@ -3932,10 +4043,10 @@
         <v>100</v>
       </c>
       <c r="W49" s="3">
+        <v>100</v>
+      </c>
+      <c r="X49" s="3">
         <v>200</v>
-      </c>
-      <c r="X49" s="3">
-        <v>300</v>
       </c>
       <c r="Y49" s="3">
         <v>300</v>
@@ -3950,13 +4061,16 @@
         <v>300</v>
       </c>
       <c r="AC49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AD49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4311,43 +4437,43 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
@@ -4362,31 +4488,34 @@
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>400</v>
       </c>
       <c r="AC54" s="3">
         <v>400</v>
       </c>
       <c r="AD54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4476,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -4488,7 +4619,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -4500,13 +4631,13 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4562,16 +4696,16 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
@@ -4601,10 +4735,10 @@
         <v>700</v>
       </c>
       <c r="X58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y58" s="3">
         <v>900</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>400</v>
       </c>
       <c r="Z58" s="3">
         <v>400</v>
@@ -4613,7 +4747,7 @@
         <v>400</v>
       </c>
       <c r="AB58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC58" s="3">
         <v>300</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4630,49 +4767,49 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
       <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
@@ -4681,13 +4818,13 @@
         <v>700</v>
       </c>
       <c r="V59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
       </c>
       <c r="X59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="Y59" s="3">
         <v>200</v>
@@ -4696,96 +4833,99 @@
         <v>200</v>
       </c>
       <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
       </c>
       <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1500</v>
       </c>
       <c r="U60" s="3">
         <v>1500</v>
       </c>
       <c r="V60" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="W60" s="3">
         <v>1300</v>
       </c>
       <c r="X60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>600</v>
       </c>
       <c r="AC60" s="3">
         <v>600</v>
@@ -4793,41 +4933,44 @@
       <c r="AD60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>1600</v>
       </c>
       <c r="F61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1700</v>
       </c>
       <c r="I61" s="3">
         <v>1700</v>
       </c>
       <c r="J61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,85 +5378,88 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1500</v>
       </c>
       <c r="U66" s="3">
         <v>1500</v>
       </c>
       <c r="V66" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="W66" s="3">
         <v>1300</v>
       </c>
       <c r="X66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>800</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>600</v>
       </c>
       <c r="AC66" s="3">
         <v>600</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-9600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,58 +6212,61 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2300</v>
       </c>
       <c r="L76" s="3">
         <v>-2300</v>
       </c>
       <c r="M76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1400</v>
       </c>
       <c r="T76" s="3">
         <v>-1400</v>
@@ -6089,34 +6275,37 @@
         <v>-1400</v>
       </c>
       <c r="V76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Z76" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
-      <c r="AB76" s="3">
-        <v>-200</v>
-      </c>
       <c r="AC76" s="3">
         <v>-200</v>
       </c>
       <c r="AD76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,138 +6390,144 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-300</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
@@ -6352,34 +6547,37 @@
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
-        <v>-200</v>
-      </c>
       <c r="AD81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6470,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -6493,11 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6941,16 +7158,16 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -6962,10 +7179,10 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -6974,37 +7191,37 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA89" s="3">
         <v>-200</v>
       </c>
       <c r="AB89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7773,85 +8019,88 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>600</v>
       </c>
       <c r="X100" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AB100" s="3">
-        <v>100</v>
-      </c>
       <c r="AC100" s="3">
         <v>100</v>
       </c>
       <c r="AD100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,34 +8197,34 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7999,27 +8251,30 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>-100</v>
       </c>
       <c r="Z102" s="3">
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>IPTK</t>
   </si>
@@ -1956,8 +1956,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
@@ -2223,8 +2223,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
@@ -2312,8 +2312,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
@@ -2846,8 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
@@ -3024,8 +3024,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
@@ -4675,7 +4675,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -6492,8 +6492,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
